--- a/doc/bug_report.xlsx
+++ b/doc/bug_report.xlsx
@@ -664,7 +664,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="4">
         <f> date(2025,2,19)</f>
@@ -794,7 +794,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="3">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="7">
         <f t="shared" si="1"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="3">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="7">
         <f> date(2025,2,21)</f>
@@ -860,7 +860,7 @@
     </row>
     <row r="8" ht="51.75" customHeight="1">
       <c r="A8" s="3">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="7">
         <f t="shared" ref="B8:B10" si="2">DATE(2025,2,22)</f>
@@ -926,7 +926,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="3">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="7">
         <f t="shared" si="2"/>
@@ -959,7 +959,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="3">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="4">
         <v>45710.0</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="3">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="4">
         <v>45710.0</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="3">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="4">
         <v>45710.0</v>
@@ -1056,6 +1056,9 @@
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="3">
         <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45710.0</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>25</v>
